--- a/JPTJY2_0317/JPTJY2_Gyak6.xlsx
+++ b/JPTJY2_0317/JPTJY2_Gyak6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGYMI702\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kristóf\GitHub\JPTJY2osGyak\JPTJY2_0317\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,13 +104,16 @@
     <t>CPU kihasználtág</t>
   </si>
   <si>
-    <t>12 cs+3 ütemezés</t>
+    <t>6 cs+3 ütemezés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -316,6 +319,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,10 +344,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -624,44 +628,45 @@
   <dimension ref="A2:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
     </row>
     <row r="5" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L5" s="16"/>
@@ -671,27 +676,27 @@
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="L6" s="29" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="L6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="V6" s="29" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="V6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
@@ -1023,47 +1028,47 @@
     </row>
     <row r="18" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="L19" s="32" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="L19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="V19" s="32" t="s">
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="V19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="34"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="38"/>
     </row>
     <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
@@ -1345,60 +1350,60 @@
       <c r="AL24" s="10"/>
     </row>
     <row r="28" spans="1:38" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
     </row>
     <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:38" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="M31" s="32" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="M31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="34"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="38"/>
     </row>
     <row r="32" spans="1:38" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
@@ -1487,18 +1492,22 @@
       <c r="I33" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="J33" s="39">
+        <f>(68.4-0.4)/68.4</f>
+        <v>0.99415204678362568</v>
+      </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -1538,8 +1547,8 @@
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -1585,16 +1594,16 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="36"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="29"/>
     </row>
     <row r="36" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
@@ -1623,14 +1632,14 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
       <c r="X36" s="18"/>
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
       <c r="AB36" s="18"/>
-      <c r="AC36" s="38"/>
+      <c r="AC36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">
